--- a/SchedulingData/dynamic13/pso/scheduling2_3.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,131 +466,131 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>219.52</v>
+        <v>246.86</v>
       </c>
       <c r="D2" t="n">
-        <v>262.02</v>
+        <v>299.06</v>
       </c>
       <c r="E2" t="n">
-        <v>12.128</v>
+        <v>13.264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>259.38</v>
+        <v>216.66</v>
       </c>
       <c r="D3" t="n">
-        <v>296.6</v>
+        <v>266.3</v>
       </c>
       <c r="E3" t="n">
-        <v>12.48</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>246.16</v>
+        <v>243.6</v>
       </c>
       <c r="D4" t="n">
-        <v>308.74</v>
+        <v>308.46</v>
       </c>
       <c r="E4" t="n">
-        <v>12.256</v>
+        <v>15.224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>262.02</v>
+        <v>239.02</v>
       </c>
       <c r="D5" t="n">
-        <v>324.52</v>
+        <v>283.7</v>
       </c>
       <c r="E5" t="n">
-        <v>8.488</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>324.52</v>
+        <v>263.96</v>
       </c>
       <c r="D6" t="n">
-        <v>412.98</v>
+        <v>324.48</v>
       </c>
       <c r="E6" t="n">
-        <v>4.232</v>
+        <v>12.152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>226.58</v>
+        <v>266.3</v>
       </c>
       <c r="D7" t="n">
-        <v>286.58</v>
+        <v>314.94</v>
       </c>
       <c r="E7" t="n">
-        <v>14.492</v>
+        <v>9.316000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>209.64</v>
+        <v>324.48</v>
       </c>
       <c r="D8" t="n">
-        <v>251.74</v>
+        <v>368.28</v>
       </c>
       <c r="E8" t="n">
-        <v>14.816</v>
+        <v>8.412000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -599,36 +599,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>286.58</v>
+        <v>200.86</v>
       </c>
       <c r="D9" t="n">
-        <v>340.66</v>
+        <v>235.92</v>
       </c>
       <c r="E9" t="n">
-        <v>11.684</v>
+        <v>15.448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>340.66</v>
+        <v>314.94</v>
       </c>
       <c r="D10" t="n">
-        <v>397.86</v>
+        <v>365.3</v>
       </c>
       <c r="E10" t="n">
-        <v>8.564</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="11">
@@ -637,245 +637,245 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>202.12</v>
+        <v>368.28</v>
       </c>
       <c r="D11" t="n">
-        <v>243.42</v>
+        <v>414.16</v>
       </c>
       <c r="E11" t="n">
-        <v>13.828</v>
+        <v>5.444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>296.6</v>
+        <v>299.06</v>
       </c>
       <c r="D12" t="n">
-        <v>378.6</v>
+        <v>350.96</v>
       </c>
       <c r="E12" t="n">
-        <v>8.4</v>
+        <v>10.184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>397.86</v>
+        <v>308.46</v>
       </c>
       <c r="D13" t="n">
-        <v>463.08</v>
+        <v>375.76</v>
       </c>
       <c r="E13" t="n">
-        <v>5.132</v>
+        <v>11.584</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>243.42</v>
+        <v>235.92</v>
       </c>
       <c r="D14" t="n">
-        <v>300.62</v>
+        <v>311.48</v>
       </c>
       <c r="E14" t="n">
-        <v>11.748</v>
+        <v>11.512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>378.6</v>
+        <v>414.16</v>
       </c>
       <c r="D15" t="n">
-        <v>477.26</v>
+        <v>462.06</v>
       </c>
       <c r="E15" t="n">
-        <v>4.604</v>
+        <v>3.284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>251.74</v>
+        <v>311.48</v>
       </c>
       <c r="D16" t="n">
-        <v>321.14</v>
+        <v>350.88</v>
       </c>
       <c r="E16" t="n">
-        <v>10.976</v>
+        <v>8.212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>308.74</v>
+        <v>350.88</v>
       </c>
       <c r="D17" t="n">
-        <v>380.82</v>
+        <v>387.24</v>
       </c>
       <c r="E17" t="n">
-        <v>8.667999999999999</v>
+        <v>5.716</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>412.98</v>
+        <v>375.76</v>
       </c>
       <c r="D18" t="n">
-        <v>440.98</v>
+        <v>406.36</v>
       </c>
       <c r="E18" t="n">
-        <v>2.072</v>
+        <v>9.164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>380.82</v>
+        <v>283.7</v>
       </c>
       <c r="D19" t="n">
-        <v>441.38</v>
+        <v>377.26</v>
       </c>
       <c r="E19" t="n">
-        <v>5.252</v>
+        <v>6.204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>463.08</v>
+        <v>377.26</v>
       </c>
       <c r="D20" t="n">
-        <v>512.5599999999999</v>
+        <v>426.86</v>
       </c>
       <c r="E20" t="n">
-        <v>2.324</v>
+        <v>1.884</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>321.14</v>
+        <v>426.86</v>
       </c>
       <c r="D21" t="n">
-        <v>403.64</v>
+        <v>504.99</v>
       </c>
       <c r="E21" t="n">
-        <v>7.796</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>512.5599999999999</v>
+        <v>406.36</v>
       </c>
       <c r="D22" t="n">
-        <v>579.91</v>
+        <v>460.68</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>6.832</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>579.91</v>
+        <v>460.68</v>
       </c>
       <c r="D23" t="n">
-        <v>620.03</v>
+        <v>506</v>
       </c>
       <c r="E23" t="n">
-        <v>27.668</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="24">
@@ -884,74 +884,74 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>441.38</v>
+        <v>365.3</v>
       </c>
       <c r="D24" t="n">
-        <v>489.22</v>
+        <v>416.96</v>
       </c>
       <c r="E24" t="n">
-        <v>1.108</v>
+        <v>2.864</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>489.22</v>
+        <v>350.96</v>
       </c>
       <c r="D25" t="n">
-        <v>583.5</v>
+        <v>393.46</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>7.064</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440.98</v>
+        <v>387.24</v>
       </c>
       <c r="D26" t="n">
-        <v>508.74</v>
+        <v>444.36</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>3.124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>508.74</v>
+        <v>444.36</v>
       </c>
       <c r="D27" t="n">
-        <v>569.14</v>
+        <v>498.74</v>
       </c>
       <c r="E27" t="n">
-        <v>27.14</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="28">
@@ -960,98 +960,98 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>620.03</v>
+        <v>498.74</v>
       </c>
       <c r="D28" t="n">
-        <v>675.23</v>
+        <v>570.01</v>
       </c>
       <c r="E28" t="n">
-        <v>25.248</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>569.14</v>
+        <v>416.96</v>
       </c>
       <c r="D29" t="n">
-        <v>604.2</v>
+        <v>507.63</v>
       </c>
       <c r="E29" t="n">
-        <v>24.764</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>403.64</v>
+        <v>507.63</v>
       </c>
       <c r="D30" t="n">
-        <v>473.14</v>
+        <v>555.11</v>
       </c>
       <c r="E30" t="n">
-        <v>3.476</v>
+        <v>26.932</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>604.2</v>
+        <v>504.99</v>
       </c>
       <c r="D31" t="n">
-        <v>673.62</v>
+        <v>557.49</v>
       </c>
       <c r="E31" t="n">
-        <v>22.432</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>473.14</v>
+        <v>462.06</v>
       </c>
       <c r="D32" t="n">
-        <v>538.36</v>
+        <v>529.46</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>538.36</v>
+        <v>529.46</v>
       </c>
       <c r="D33" t="n">
-        <v>623.83</v>
+        <v>620.83</v>
       </c>
       <c r="E33" t="n">
         <v>30</v>
@@ -1070,154 +1070,173 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>675.23</v>
+        <v>557.49</v>
       </c>
       <c r="D34" t="n">
-        <v>705.39</v>
+        <v>612.35</v>
       </c>
       <c r="E34" t="n">
-        <v>22.872</v>
+        <v>24.544</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>583.5</v>
+        <v>393.46</v>
       </c>
       <c r="D35" t="n">
-        <v>639.98</v>
+        <v>443.16</v>
       </c>
       <c r="E35" t="n">
-        <v>27.032</v>
+        <v>4.204</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>300.62</v>
+        <v>612.35</v>
       </c>
       <c r="D36" t="n">
-        <v>350.1</v>
+        <v>657.67</v>
       </c>
       <c r="E36" t="n">
-        <v>8.42</v>
+        <v>21.632</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>673.62</v>
+        <v>570.01</v>
       </c>
       <c r="D37" t="n">
-        <v>723.02</v>
+        <v>605.09</v>
       </c>
       <c r="E37" t="n">
-        <v>19.132</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>350.1</v>
+        <v>443.16</v>
       </c>
       <c r="D38" t="n">
-        <v>430.32</v>
+        <v>486.38</v>
       </c>
       <c r="E38" t="n">
-        <v>5.508</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>623.83</v>
+        <v>486.38</v>
       </c>
       <c r="D39" t="n">
-        <v>658.91</v>
+        <v>566.26</v>
       </c>
       <c r="E39" t="n">
-        <v>27.192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>705.39</v>
+        <v>555.11</v>
       </c>
       <c r="D40" t="n">
-        <v>751.55</v>
+        <v>603.11</v>
       </c>
       <c r="E40" t="n">
-        <v>20.376</v>
+        <v>23.752</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>430.32</v>
+        <v>566.26</v>
       </c>
       <c r="D41" t="n">
-        <v>470.28</v>
+        <v>611.34</v>
       </c>
       <c r="E41" t="n">
-        <v>3.132</v>
+        <v>27.192</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>pond60</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>611.34</v>
+      </c>
+      <c r="D42" t="n">
+        <v>660.66</v>
+      </c>
+      <c r="E42" t="n">
+        <v>24.86</v>
       </c>
     </row>
   </sheetData>
